--- a/data/Unit Stats.xlsx
+++ b/data/Unit Stats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="67">
   <si>
     <t>Type</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Tier</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Unit ID</t>
   </si>
   <si>
     <t>Faction</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Population Cost</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Special Ability</t>
@@ -564,7 +567,8 @@
     <col customWidth="1" min="4" max="4" width="24.0"/>
     <col customWidth="1" min="7" max="7" width="16.75"/>
     <col customWidth="1" min="18" max="18" width="13.63"/>
-    <col customWidth="1" min="19" max="19" width="113.88"/>
+    <col customWidth="1" min="19" max="19" width="28.25"/>
+    <col customWidth="1" min="20" max="20" width="113.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -625,10 +629,13 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3">
         <v>1.0</v>
@@ -637,14 +644,14 @@
         <v>10.0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3">
         <v>1.0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3">
         <v>0.0</v>
@@ -653,10 +660,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="3">
@@ -680,7 +687,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>1.0</v>
@@ -689,26 +696,26 @@
         <v>12.0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3">
         <v>1.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3">
         <v>2.0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
@@ -732,7 +739,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3">
         <v>2.0</v>
@@ -741,14 +748,14 @@
         <v>13.0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3">
         <v>2.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3">
         <v>0.0</v>
@@ -757,10 +764,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
@@ -784,7 +791,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>2.0</v>
@@ -793,26 +800,26 @@
         <v>14.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3">
         <v>1.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3">
         <v>2.0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
@@ -836,7 +843,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3">
         <v>2.0</v>
@@ -845,26 +852,26 @@
         <v>15.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3">
         <v>1.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3">
         <v>2.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
@@ -888,7 +895,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>3.0</v>
@@ -897,50 +904,50 @@
         <v>16.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>3.0</v>
@@ -949,50 +956,50 @@
         <v>17.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1014,7 +1021,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1.0</v>
@@ -1023,14 +1030,14 @@
         <v>21.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3">
         <v>1.0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3">
         <v>0.0</v>
@@ -1039,10 +1046,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="3">
@@ -1066,7 +1073,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>1.0</v>
@@ -1075,26 +1082,26 @@
         <v>22.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3">
         <v>1.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3">
         <v>2.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="3">
@@ -1118,7 +1125,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>2.0</v>
@@ -1127,14 +1134,14 @@
         <v>23.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3">
         <v>2.0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3">
         <v>0.0</v>
@@ -1143,10 +1150,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="3">
@@ -1170,7 +1177,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3">
         <v>2.0</v>
@@ -1179,26 +1186,26 @@
         <v>24.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3">
         <v>1.0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3">
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="3">
@@ -1222,7 +1229,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>2.0</v>
@@ -1231,26 +1238,26 @@
         <v>25.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3">
         <v>1.0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3">
         <v>2.0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="3">
@@ -1274,7 +1281,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3">
         <v>3.0</v>
@@ -1283,14 +1290,14 @@
         <v>26.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3">
         <v>3.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3">
         <v>0.0</v>
@@ -1299,10 +1306,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="3">
@@ -1326,7 +1333,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <v>3.0</v>
@@ -1335,14 +1342,14 @@
         <v>27.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3">
         <v>5.0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3">
         <v>0.0</v>
@@ -1351,10 +1358,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="3">
@@ -1375,13 +1382,13 @@
       <c r="R16" s="3">
         <v>1.0</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>40</v>
+      <c r="T16" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1403,7 +1410,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
         <v>1.0</v>
@@ -1412,14 +1419,14 @@
         <v>31.0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3">
         <v>1.0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3">
         <v>0.0</v>
@@ -1428,10 +1435,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="3">
@@ -1455,7 +1462,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>1.0</v>
@@ -1464,26 +1471,26 @@
         <v>32.0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3">
         <v>1.0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3">
         <v>2.0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="3">
@@ -1507,7 +1514,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>2.0</v>
@@ -1516,14 +1523,14 @@
         <v>33.0</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3">
         <v>2.0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3">
         <v>0.0</v>
@@ -1532,10 +1539,10 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="3">
@@ -1559,7 +1566,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
         <v>2.0</v>
@@ -1568,26 +1575,26 @@
         <v>34.0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3">
         <v>1.0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3">
         <v>2.0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="3">
@@ -1611,7 +1618,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3">
         <v>2.0</v>
@@ -1620,26 +1627,26 @@
         <v>35.0</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3">
         <v>1.0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3">
         <v>2.0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="3">
@@ -1663,7 +1670,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
         <v>3.0</v>
@@ -1672,14 +1679,14 @@
         <v>36.0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3">
         <v>3.0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3">
         <v>0.0</v>
@@ -1688,10 +1695,10 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="3">
@@ -1715,7 +1722,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
         <v>3.0</v>
@@ -1724,26 +1731,26 @@
         <v>37.0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3">
         <v>6.0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="3">
         <v>2.0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="3">
@@ -1767,7 +1774,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1789,7 +1796,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <v>1.0</v>
@@ -1798,14 +1805,14 @@
         <v>41.0</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3">
         <v>1.0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="3">
         <v>0.0</v>
@@ -1814,10 +1821,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="3">
@@ -1841,7 +1848,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>1.0</v>
@@ -1850,26 +1857,26 @@
         <v>42.0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3">
         <v>1.0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="3">
         <v>2.0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="3">
@@ -1893,7 +1900,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>2.0</v>
@@ -1902,14 +1909,14 @@
         <v>43.0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3">
         <v>2.0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="3">
         <v>0.0</v>
@@ -1918,10 +1925,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="3">
@@ -1945,7 +1952,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>2.0</v>
@@ -1954,26 +1961,26 @@
         <v>44.0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3">
         <v>1.0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="3">
         <v>2.0</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="3">
@@ -1997,7 +2004,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>2.0</v>
@@ -2006,26 +2013,26 @@
         <v>45.0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3">
         <v>1.0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="3">
         <v>2.0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="3">
@@ -2049,7 +2056,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3">
         <v>3.0</v>
@@ -2058,26 +2065,26 @@
         <v>46.0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3">
         <v>1.0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="3">
         <v>3.0</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="3">
@@ -2101,7 +2108,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3">
         <v>3.0</v>
@@ -2110,26 +2117,26 @@
         <v>47.0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3">
         <v>2.0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="3">
         <v>2.0</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="3">
@@ -2150,13 +2157,13 @@
       <c r="R32" s="3">
         <v>1.0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>48</v>
+      <c r="T32" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2178,7 +2185,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3">
         <v>1.0</v>
@@ -2187,14 +2194,14 @@
         <v>51.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3">
         <v>2.0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="3">
         <v>0.0</v>
@@ -2203,10 +2210,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="3">
@@ -2230,7 +2237,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3">
         <v>1.0</v>
@@ -2239,26 +2246,26 @@
         <v>52.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3">
         <v>1.0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3">
         <v>2.0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="3">
@@ -2282,7 +2289,7 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3">
         <v>2.0</v>
@@ -2291,14 +2298,14 @@
         <v>53.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3">
         <v>2.0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="3">
         <v>0.0</v>
@@ -2307,10 +2314,10 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="3">
@@ -2334,7 +2341,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3">
         <v>2.0</v>
@@ -2343,26 +2350,26 @@
         <v>54.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3">
         <v>1.0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="3">
         <v>2.0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="3">
@@ -2386,7 +2393,7 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3">
         <v>2.0</v>
@@ -2395,26 +2402,26 @@
         <v>55.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3">
         <v>1.0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="3">
         <v>2.0</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="3">
@@ -2438,7 +2445,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
         <v>3.0</v>
@@ -2447,14 +2454,14 @@
         <v>56.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3">
         <v>2.0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="3">
         <v>0.0</v>
@@ -2463,10 +2470,10 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="3">
@@ -2490,7 +2497,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
         <v>3.0</v>
@@ -2499,14 +2506,14 @@
         <v>57.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3">
         <v>4.0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="3">
         <v>0.0</v>
@@ -2515,10 +2522,10 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="3">
@@ -2539,13 +2546,13 @@
       <c r="R40" s="3">
         <v>1.0</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>53</v>
+      <c r="T40" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2567,7 +2574,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" s="3">
         <v>1.0</v>
@@ -2576,14 +2583,14 @@
         <v>61.0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="11">
         <v>1.0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="3">
         <v>0.0</v>
@@ -2592,10 +2599,10 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="3">
@@ -2616,13 +2623,13 @@
       <c r="R42" s="3">
         <v>1.0</v>
       </c>
-      <c r="S42" s="11">
+      <c r="T42" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="3">
         <v>1.0</v>
@@ -2631,26 +2638,26 @@
         <v>62.0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="11">
         <v>1.0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="3">
         <v>2.0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="3">
@@ -2671,13 +2678,13 @@
       <c r="R43" s="3">
         <v>1.0</v>
       </c>
-      <c r="S43" s="11">
+      <c r="T43" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="3">
         <v>2.0</v>
@@ -2686,14 +2693,14 @@
         <v>63.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="11">
         <v>2.0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="3">
         <v>0.0</v>
@@ -2702,10 +2709,10 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="3">
@@ -2726,13 +2733,13 @@
       <c r="R44" s="3">
         <v>1.0</v>
       </c>
-      <c r="S44" s="11">
+      <c r="T44" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3">
         <v>2.0</v>
@@ -2741,26 +2748,26 @@
         <v>64.0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="11">
         <v>1.0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3">
         <v>2.0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="3">
@@ -2781,13 +2788,13 @@
       <c r="R45" s="3">
         <v>1.0</v>
       </c>
-      <c r="S45" s="11">
+      <c r="T45" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3">
         <v>2.0</v>
@@ -2796,26 +2803,26 @@
         <v>65.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="11">
         <v>1.0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="3">
         <v>2.0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="3">
@@ -2836,13 +2843,13 @@
       <c r="R46" s="3">
         <v>2.0</v>
       </c>
-      <c r="S46" s="11">
+      <c r="T46" s="11">
         <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3">
         <v>3.0</v>
@@ -2851,26 +2858,26 @@
         <v>66.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3">
         <v>1.0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47" s="3">
         <v>2.0</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="3">
@@ -2891,13 +2898,13 @@
       <c r="R47" s="3">
         <v>1.0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>57</v>
+      <c r="T47" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3">
         <v>3.0</v>
@@ -2906,26 +2913,26 @@
         <v>67.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3">
         <v>2.0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H48" s="3">
         <v>2.0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="3">
@@ -2946,13 +2953,13 @@
       <c r="R48" s="3">
         <v>1.0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>60</v>
+      <c r="T48" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2974,7 +2981,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" s="3">
         <v>1.0</v>
@@ -2983,7 +2990,7 @@
         <v>71.0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="13">
@@ -2997,10 +3004,10 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="13">
@@ -3021,13 +3028,13 @@
       <c r="R50" s="13">
         <v>1.0</v>
       </c>
-      <c r="S50" s="13">
+      <c r="T50" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3">
         <v>1.0</v>
@@ -3036,7 +3043,7 @@
         <v>72.0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="13">
@@ -3047,13 +3054,13 @@
         <v>2.0</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="13">
@@ -3074,13 +3081,13 @@
       <c r="R51" s="13">
         <v>1.0</v>
       </c>
-      <c r="S51" s="13">
+      <c r="T51" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="3">
         <v>2.0</v>
@@ -3089,7 +3096,7 @@
         <v>73.0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="13">
@@ -3103,10 +3110,10 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="13">
@@ -3127,13 +3134,13 @@
       <c r="R52" s="13">
         <v>1.0</v>
       </c>
-      <c r="S52" s="13">
+      <c r="T52" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" s="3">
         <v>2.0</v>
@@ -3142,7 +3149,7 @@
         <v>74.0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="13">
@@ -3153,13 +3160,13 @@
         <v>2.0</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="13">
@@ -3180,13 +3187,13 @@
       <c r="R53" s="13">
         <v>1.0</v>
       </c>
-      <c r="S53" s="13">
+      <c r="T53" s="13">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="3">
         <v>2.0</v>
@@ -3195,7 +3202,7 @@
         <v>75.0</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="13">
@@ -3206,13 +3213,13 @@
         <v>2.0</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="13">
@@ -3233,13 +3240,13 @@
       <c r="R54" s="13">
         <v>2.0</v>
       </c>
-      <c r="S54" s="13">
+      <c r="T54" s="13">
         <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3">
         <v>3.0</v>
@@ -3248,26 +3255,26 @@
         <v>76.0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="15">
         <v>2.0</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H55" s="15">
         <v>1.0</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="15">
@@ -3288,13 +3295,13 @@
       <c r="R55" s="15">
         <v>1.0</v>
       </c>
-      <c r="S55" s="15" t="s">
-        <v>63</v>
+      <c r="T55" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3">
         <v>3.0</v>
@@ -3303,26 +3310,26 @@
         <v>77.0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="15">
         <v>3.0</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56" s="15">
         <v>2.0</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="15">
@@ -3343,8 +3350,8 @@
       <c r="R56" s="15">
         <v>1.0</v>
       </c>
-      <c r="S56" s="15" t="s">
-        <v>65</v>
+      <c r="T56" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/Unit Stats.xlsx
+++ b/data/Unit Stats.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aenva\Desktop\Projects\battle-for-aven\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFBE67-822B-4F54-86CF-E6A27630BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="68">
   <si>
     <t>Type</t>
   </si>
@@ -212,61 +221,73 @@
   </si>
   <si>
     <t>Can bribe tier 1 and 2 units at no cost, when alive provides + 4 gold per turn</t>
+  </si>
+  <si>
+    <t>Tax Collector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF38761D"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
     </font>
@@ -276,7 +297,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -292,70 +313,52 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -545,33 +548,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.13"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="7" max="7" width="16.75"/>
-    <col customWidth="1" min="18" max="18" width="13.63"/>
-    <col customWidth="1" min="19" max="19" width="28.25"/>
-    <col customWidth="1" min="20" max="20" width="113.88"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" customWidth="1"/>
+    <col min="19" max="19" width="28.26953125" customWidth="1"/>
+    <col min="20" max="20" width="113.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,31 +639,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>23</v>
@@ -667,46 +673,46 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>23</v>
@@ -719,49 +725,49 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>24</v>
@@ -771,46 +777,46 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N4" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>29</v>
@@ -823,46 +829,46 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
@@ -875,33 +881,33 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -945,15 +951,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -997,7 +1003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1019,31 +1025,31 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>23</v>
@@ -1053,46 +1059,46 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>23</v>
@@ -1105,49 +1111,49 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
@@ -1157,46 +1163,46 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O12" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>29</v>
@@ -1209,46 +1215,46 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>31</v>
@@ -1261,49 +1267,49 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N14" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O14" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>31</v>
@@ -1313,49 +1319,49 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O15" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P15" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>39</v>
@@ -1365,28 +1371,28 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="N16" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="O16" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="P16" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1408,31 +1414,31 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>23</v>
@@ -1442,46 +1448,46 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>23</v>
@@ -1494,49 +1500,49 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>24</v>
@@ -1546,46 +1552,46 @@
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N20" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O20" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>29</v>
@@ -1598,46 +1604,46 @@
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>31</v>
@@ -1650,49 +1656,49 @@
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P22" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>23</v>
@@ -1702,46 +1708,46 @@
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="N23" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O23" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P23" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>40</v>
@@ -1754,25 +1760,25 @@
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="N24" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="O24" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P24" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="R24" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1794,31 +1800,31 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>23</v>
@@ -1828,46 +1834,46 @@
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>24</v>
@@ -1880,49 +1886,49 @@
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O27" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>24</v>
@@ -1932,46 +1938,46 @@
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N28" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O28" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P28" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>29</v>
@@ -1984,46 +1990,46 @@
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N29" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O29" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P29" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>31</v>
@@ -2036,46 +2042,46 @@
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N30" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O30" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P30" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>31</v>
@@ -2088,46 +2094,46 @@
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N31" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O31" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>24</v>
@@ -2140,28 +2146,28 @@
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="N32" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O32" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="P32" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="R32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
@@ -2183,31 +2189,31 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>23</v>
@@ -2217,46 +2223,46 @@
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>23</v>
@@ -2269,49 +2275,49 @@
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>24</v>
@@ -2321,46 +2327,46 @@
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N36" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O36" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>29</v>
@@ -2373,46 +2379,46 @@
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P37" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>31</v>
@@ -2425,49 +2431,49 @@
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O38" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P38" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>31</v>
@@ -2477,49 +2483,49 @@
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N39" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O39" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R39" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>24</v>
@@ -2529,28 +2535,28 @@
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>55</v>
       </c>
@@ -2572,31 +2578,31 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="11">
-        <v>1.0</v>
+      <c r="F42" s="3">
+        <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>23</v>
@@ -2606,49 +2612,49 @@
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="T42" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="11">
-        <v>1.0</v>
+      <c r="F43" s="3">
+        <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>23</v>
@@ -2661,52 +2667,52 @@
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O43" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="T43" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="11">
-        <v>2.0</v>
+      <c r="F44" s="3">
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>24</v>
@@ -2716,49 +2722,49 @@
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N44" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O44" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P44" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="T44" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="11">
-        <v>1.0</v>
+      <c r="F45" s="3">
+        <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>56</v>
@@ -2771,49 +2777,49 @@
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N45" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O45" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P45" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="T45" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="11">
-        <v>1.0</v>
+      <c r="F46" s="3">
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>31</v>
@@ -2826,49 +2832,49 @@
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N46" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O46" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P46" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="T46" s="11">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+      <c r="T46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>39</v>
@@ -2881,49 +2887,49 @@
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N47" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O47" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="P47" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R47" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H48" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>60</v>
@@ -2936,29 +2942,29 @@
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="N48" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="O48" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P48" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R48" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="4"/>
@@ -2979,29 +2985,29 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I50" s="13">
-        <v>0.0</v>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>23</v>
@@ -3010,48 +3016,48 @@
         <v>24</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="N50" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="O50" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="P50" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="Q50" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="R50" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="T50" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="M50" s="12">
+        <v>4</v>
+      </c>
+      <c r="N50" s="12">
+        <v>2</v>
+      </c>
+      <c r="O50" s="12">
+        <v>2</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12">
+        <v>1</v>
+      </c>
+      <c r="T50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14">
-        <v>2.0</v>
+      <c r="F51" s="12">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12">
+        <v>2</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>23</v>
@@ -3063,51 +3069,51 @@
         <v>26</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="N51" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="O51" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="P51" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="Q51" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="R51" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="T51" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="M51" s="12">
+        <v>2</v>
+      </c>
+      <c r="N51" s="12">
+        <v>2</v>
+      </c>
+      <c r="O51" s="12">
+        <v>2</v>
+      </c>
+      <c r="P51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12">
+        <v>1</v>
+      </c>
+      <c r="T51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0.0</v>
+      <c r="F52" s="12">
+        <v>2</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>24</v>
@@ -3116,48 +3122,48 @@
         <v>24</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="N52" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="O52" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="P52" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="Q52" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="R52" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="T52" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="M52" s="12">
+        <v>12</v>
+      </c>
+      <c r="N52" s="12">
+        <v>6</v>
+      </c>
+      <c r="O52" s="12">
+        <v>4</v>
+      </c>
+      <c r="P52" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
+        <v>1</v>
+      </c>
+      <c r="T52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13">
-        <v>2.0</v>
+      <c r="F53" s="12">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12">
+        <v>2</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>29</v>
@@ -3169,48 +3175,48 @@
         <v>23</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="N53" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="O53" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="P53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="Q53" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="R53" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="T53" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="M53" s="12">
+        <v>10</v>
+      </c>
+      <c r="N53" s="12">
+        <v>4</v>
+      </c>
+      <c r="O53" s="12">
+        <v>4</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>2</v>
+      </c>
+      <c r="R53" s="12">
+        <v>1</v>
+      </c>
+      <c r="T53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13">
-        <v>2.0</v>
+      <c r="F54" s="12">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12">
+        <v>2</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>31</v>
@@ -3222,139 +3228,139 @@
         <v>26</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="13">
-        <v>12.0</v>
-      </c>
-      <c r="N54" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="O54" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="P54" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="Q54" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="R54" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="T54" s="13">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="M54" s="12">
+        <v>12</v>
+      </c>
+      <c r="N54" s="12">
+        <v>6</v>
+      </c>
+      <c r="O54" s="12">
+        <v>6</v>
+      </c>
+      <c r="P54" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
+        <v>2</v>
+      </c>
+      <c r="T54" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C55" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="7">
+        <v>2</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I55" s="15" t="s">
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="N55" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="O55" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="P55" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="R55" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="T55" s="15" t="s">
+      <c r="M55" s="7">
+        <v>8</v>
+      </c>
+      <c r="N55" s="7">
+        <v>10</v>
+      </c>
+      <c r="O55" s="7">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>10</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1</v>
+      </c>
+      <c r="T55" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="7">
+        <v>3</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="I56" s="15" t="s">
+      <c r="H56" s="7">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="J56" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="15">
-        <v>20.0</v>
-      </c>
-      <c r="N56" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="O56" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="P56" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="Q56" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="R56" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="T56" s="15" t="s">
+      <c r="M56" s="7">
+        <v>20</v>
+      </c>
+      <c r="N56" s="7">
+        <v>12</v>
+      </c>
+      <c r="O56" s="7">
+        <v>12</v>
+      </c>
+      <c r="P56" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>12</v>
+      </c>
+      <c r="R56" s="7">
+        <v>1</v>
+      </c>
+      <c r="T56" s="7" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>